--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/101.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/101.xlsx
@@ -479,13 +479,13 @@
         <v>-12.4466548922076</v>
       </c>
       <c r="E2" t="n">
-        <v>-13.93868093745013</v>
+        <v>-13.86873391620517</v>
       </c>
       <c r="F2" t="n">
-        <v>-5.40031400678145</v>
+        <v>-5.414853913203655</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.267587066482877</v>
+        <v>-7.037021502639168</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-12.22123428153282</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.00943953383499</v>
+        <v>-13.91169850855162</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.517967957033758</v>
+        <v>-5.632678725152183</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.401907641144498</v>
+        <v>-7.130073970337159</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-12.05394367188504</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.40265746713409</v>
+        <v>-14.20853944948323</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.627745717223466</v>
+        <v>-5.85329516002172</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.142448046717321</v>
+        <v>-6.81697708157306</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-11.97679961276661</v>
       </c>
       <c r="E5" t="n">
-        <v>-14.32199374283686</v>
+        <v>-14.11447495736379</v>
       </c>
       <c r="F5" t="n">
-        <v>-5.270129531929238</v>
+        <v>-5.411685836753894</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.07126410673504</v>
+        <v>-6.741427258458623</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-11.97347354627215</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.51460594637271</v>
+        <v>-14.25901355637726</v>
       </c>
       <c r="F6" t="n">
-        <v>-5.27640212773949</v>
+        <v>-5.510424219438108</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.921606717531906</v>
+        <v>-6.46340410495777</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-12.03823766188108</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.91376891202198</v>
+        <v>-14.70898308138751</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.153746723462328</v>
+        <v>-5.477423423086432</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.649430816243885</v>
+        <v>-6.108545319536483</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-12.15556807885551</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.26929749138403</v>
+        <v>-14.99835361982647</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.134601372571489</v>
+        <v>-5.461495038714023</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.664669850648059</v>
+        <v>-6.199666629522044</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-12.30207421197452</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.5922408399781</v>
+        <v>-15.25414645910346</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.899885041897769</v>
+        <v>-5.322197455061882</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.346361280563826</v>
+        <v>-5.925784464837468</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-12.45893667657831</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.02509884095415</v>
+        <v>-15.62406338567485</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.729659600805524</v>
+        <v>-4.997132277487575</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.322307366778605</v>
+        <v>-5.941248393557521</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-12.59699052327761</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.22911220850364</v>
+        <v>-15.71465668291878</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.879072539665312</v>
+        <v>-5.201766548909167</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.000498267777663</v>
+        <v>-5.552396343390573</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-12.69827589697451</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.75608848067467</v>
+        <v>-16.18485202933746</v>
       </c>
       <c r="F12" t="n">
-        <v>-4.615530624504262</v>
+        <v>-4.907599894733761</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.878908666997487</v>
+        <v>-5.528371763646553</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-12.73960672038226</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.24287222739279</v>
+        <v>-16.64408622236052</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.385634854601321</v>
+        <v>-4.623573040800337</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.915581107506217</v>
+        <v>-5.718011451007317</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-12.71853290504785</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.59789723904755</v>
+        <v>-16.95622975478557</v>
       </c>
       <c r="F14" t="n">
-        <v>-4.090685959327208</v>
+        <v>-4.287595599899075</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.691801485193785</v>
+        <v>-5.586047377655548</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-12.63946009213362</v>
       </c>
       <c r="E15" t="n">
-        <v>-17.95432539567312</v>
+        <v>-17.29733087488336</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.961616178040654</v>
+        <v>-4.211121754486792</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.422275425627632</v>
+        <v>-5.440907430797444</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-12.51490084543755</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.50655338831177</v>
+        <v>-17.69175639287859</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.518857938159103</v>
+        <v>-3.751491551907516</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.108929197513318</v>
+        <v>-5.161143790851971</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-12.37351638525259</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.23259535308297</v>
+        <v>-18.42826572135186</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.345992433358724</v>
+        <v>-3.531505798923812</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.034503845978272</v>
+        <v>-5.259515498021166</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-12.23473317901421</v>
       </c>
       <c r="E18" t="n">
-        <v>-19.82028820153421</v>
+        <v>-18.95809228452629</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.976051061753004</v>
+        <v>-3.175351426682791</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.797294121802426</v>
+        <v>-5.11788096908664</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-12.12428178963824</v>
       </c>
       <c r="E19" t="n">
-        <v>-20.33901671912076</v>
+        <v>-19.37009378220808</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.688181448422184</v>
+        <v>-2.829312409649418</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.550506833174293</v>
+        <v>-4.772350408767426</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-12.05065298025655</v>
       </c>
       <c r="E20" t="n">
-        <v>-20.83606249125253</v>
+        <v>-19.82568077610842</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.333748006598318</v>
+        <v>-2.57998283745049</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.499255374188424</v>
+        <v>-4.700276669535365</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-12.02558299666079</v>
       </c>
       <c r="E21" t="n">
-        <v>-21.41481334614419</v>
+        <v>-20.39930306279669</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.124112281151872</v>
+        <v>-2.335151151569123</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.541413280401832</v>
+        <v>-4.713853441604789</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-12.04729549674334</v>
       </c>
       <c r="E22" t="n">
-        <v>-21.8711434690883</v>
+        <v>-20.78186296112591</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.889987520309049</v>
+        <v>-2.043512113943912</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.453337821694359</v>
+        <v>-4.615403510325723</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-12.1108410931928</v>
       </c>
       <c r="E23" t="n">
-        <v>-22.1980273572171</v>
+        <v>-21.19529693781971</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.722724817378155</v>
+        <v>-1.888990162908199</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.45295647915874</v>
+        <v>-4.582480938083918</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-12.20899731801361</v>
       </c>
       <c r="E24" t="n">
-        <v>-22.66306480139118</v>
+        <v>-21.65078615158271</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.562145386834334</v>
+        <v>-1.726391572528341</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.544659580961463</v>
+        <v>-4.658245877500498</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-12.3221475226547</v>
       </c>
       <c r="E25" t="n">
-        <v>-23.10626794089762</v>
+        <v>-22.13400581229485</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.423556709177896</v>
+        <v>-1.55860085685582</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.678535255998195</v>
+        <v>-4.728544907239868</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-12.43838975514191</v>
       </c>
       <c r="E26" t="n">
-        <v>-22.95506073651768</v>
+        <v>-21.94354477178044</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.253761500689939</v>
+        <v>-1.391915056735222</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.756866924019906</v>
+        <v>-4.699401537306188</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-12.53681663257661</v>
       </c>
       <c r="E27" t="n">
-        <v>-23.18483428124895</v>
+        <v>-22.33943699183575</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.101341822606999</v>
+        <v>-1.16187750563314</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.726501302369497</v>
+        <v>-4.683394928823908</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-12.60950484574477</v>
       </c>
       <c r="E28" t="n">
-        <v>-23.16855388838212</v>
+        <v>-22.21742204745815</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.9209912482933734</v>
+        <v>-1.026315123227322</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.636225790571913</v>
+        <v>-4.631214558533325</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-12.64118394765961</v>
       </c>
       <c r="E29" t="n">
-        <v>-23.33847621104862</v>
+        <v>-22.34423310757219</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.9836438712928884</v>
+        <v>-1.095538571455971</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.505386188799536</v>
+        <v>-4.473201856594634</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-12.62861432271994</v>
       </c>
       <c r="E30" t="n">
-        <v>-23.37618023200626</v>
+        <v>-22.54971806618862</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.7989909709363778</v>
+        <v>-0.8635454176071228</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.689007508707127</v>
+        <v>-4.696380131062434</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-12.56840878291411</v>
       </c>
       <c r="E31" t="n">
-        <v>-23.30906883474412</v>
+        <v>-22.48123285799688</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.9425322125490007</v>
+        <v>-0.9277723008177845</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.51178100978146</v>
+        <v>-4.452311130252307</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-12.45722510086235</v>
       </c>
       <c r="E32" t="n">
-        <v>-23.18416448730818</v>
+        <v>-22.46091414545798</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.8880246749897659</v>
+        <v>-0.8899851667433988</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.483009204369665</v>
+        <v>-4.433904019398372</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-12.30374042873403</v>
       </c>
       <c r="E33" t="n">
-        <v>-22.94313644876927</v>
+        <v>-22.23181039466748</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.8723358519538359</v>
+        <v>-0.8526478213007693</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.347930833643672</v>
+        <v>-4.304408894514395</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-12.11072709146823</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.66543596972163</v>
+        <v>-21.98617691165994</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.9902929206318928</v>
+        <v>-0.9936956694112656</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.058472293081106</v>
+        <v>-3.972371993147867</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-11.8922735518284</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.47009081134718</v>
+        <v>-21.79290958120393</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.9890902249426318</v>
+        <v>-0.904173064671186</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.87422518029455</v>
+        <v>-3.75070931080881</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-11.65296894421521</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.46630672003219</v>
+        <v>-21.79757858276183</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.128114024210225</v>
+        <v>-1.145846452116526</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.819732309755915</v>
+        <v>-3.759196626729775</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-11.40746525762868</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.95639797083356</v>
+        <v>-21.30654140006949</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.197880152201102</v>
+        <v>-1.169670582579002</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.750103073957312</v>
+        <v>-3.701579680803182</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-11.1604351526349</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.88326331711138</v>
+        <v>-21.31526338832007</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.435754781310848</v>
+        <v>-1.450778699412878</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.393479357057068</v>
+        <v>-3.315876151058528</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-10.91760997667935</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.32721212110281</v>
+        <v>-20.79028671995761</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.405286490516234</v>
+        <v>-1.406249624869017</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.3251750421194</v>
+        <v>-3.211085177873072</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-10.68476714044497</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.03123164537978</v>
+        <v>-20.49468269776333</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.584639707429009</v>
+        <v>-1.584326810989527</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.177023467031276</v>
+        <v>-3.039554371947362</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-10.45967300254497</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.54905334313029</v>
+        <v>-19.994571518326</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.46505459946427</v>
+        <v>-1.435520108981236</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.900540350693502</v>
+        <v>-2.751362084163326</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-10.24603133737901</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.03220709318751</v>
+        <v>-19.54444554509601</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.531095304222557</v>
+        <v>-1.548211717263626</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.591770233006621</v>
+        <v>-2.434016648431877</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-10.03893952709925</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.65644291440329</v>
+        <v>-19.24250048099534</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.625267354493072</v>
+        <v>-1.788506404772496</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.445192918129644</v>
+        <v>-2.228287239472096</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-9.844366948761884</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.24868996368885</v>
+        <v>-18.8841020546024</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.622392618455326</v>
+        <v>-1.802972976091697</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.437170057861037</v>
+        <v>-2.193237949243183</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-9.658328026133015</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.94802581938732</v>
+        <v>-18.65707124272348</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.705183060739664</v>
+        <v>-1.865606043063744</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.086872715846581</v>
+        <v>-1.771301989607822</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-9.485737858561578</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.51733853746018</v>
+        <v>-18.25784471998493</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.677946403484081</v>
+        <v>-1.82902160467862</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.142636728170613</v>
+        <v>-1.864559795594225</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-9.32728449837445</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.08631880306609</v>
+        <v>-17.85335762585759</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.794402547053995</v>
+        <v>-1.962325265911923</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.148694207678721</v>
+        <v>-1.840486325781535</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-9.181266382524628</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.64525215956049</v>
+        <v>-17.43966942080672</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.877378771599276</v>
+        <v>-2.039038672660685</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.03171005136718</v>
+        <v>-1.746016046092138</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-9.049710652371981</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.34708629776795</v>
+        <v>-17.13188199350009</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.87996994523874</v>
+        <v>-2.059059155780702</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.026429923950912</v>
+        <v>-1.654122273021605</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.926506204136262</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.91797327605196</v>
+        <v>-16.70233873917981</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.915591249271083</v>
+        <v>-2.086295813036285</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.156624176816857</v>
+        <v>-1.850401231707639</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.812478951457491</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.75892899366435</v>
+        <v>-16.68425919178596</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.748450771511862</v>
+        <v>-1.934096140262356</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.038168429438374</v>
+        <v>-1.655970317617298</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.696808497262664</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.34043000585643</v>
+        <v>-16.22211603967709</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.762457776185573</v>
+        <v>-1.853271078738518</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.914593891870232</v>
+        <v>-1.437436599673067</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.578971067833697</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.34499144926326</v>
+        <v>-16.23108247827101</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.790809127006812</v>
+        <v>-1.8804930689735</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.095316030705743</v>
+        <v>-1.640926843487801</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.45192695850452</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.98614812324544</v>
+        <v>-15.83806010524658</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.726934252290569</v>
+        <v>-1.79593280620334</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.001065756325357</v>
+        <v>-1.517474531091332</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.3121719632021</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.6729241203028</v>
+        <v>-15.51737058881816</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.700382055996354</v>
+        <v>-1.761523975873992</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.368063945797194</v>
+        <v>-1.845551336895659</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.158105637696174</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.52671836994771</v>
+        <v>-15.42538881362403</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.759509705044823</v>
+        <v>-1.846778477619255</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.269775351744736</v>
+        <v>-1.745131135849226</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.986563850565934</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.42488524591673</v>
+        <v>-15.35127635852846</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.827799352961891</v>
+        <v>-1.891229328053246</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.284339703201276</v>
+        <v>-1.642990004385639</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.8011932796806</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.99923853006938</v>
+        <v>-14.80836681297816</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.661768679761459</v>
+        <v>-1.781554237007743</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.618180648101696</v>
+        <v>-2.012070910782783</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.599056026770956</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.07054958423021</v>
+        <v>-14.8959435929852</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.708747146745645</v>
+        <v>-1.840139206293984</v>
       </c>
       <c r="G59" t="n">
-        <v>-2.791852839035116</v>
+        <v>-2.15570015451901</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.387095507960466</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.9594273471521</v>
+        <v>-14.71261561348963</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.70621953019545</v>
+        <v>-1.770373078303108</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.74224408635653</v>
+        <v>-2.008976169436025</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.163479549613242</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.92767324755148</v>
+        <v>-14.76100700345835</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.794959893836823</v>
+        <v>-1.832610135718935</v>
       </c>
       <c r="G61" t="n">
-        <v>-3.051121762194482</v>
+        <v>-2.329191452198354</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.932422007314082</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.71320718332053</v>
+        <v>-14.50746799634701</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.713694821694963</v>
+        <v>-1.764863167564095</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.210850505543461</v>
+        <v>-2.503298764742929</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.694284265726701</v>
       </c>
       <c r="E63" t="n">
-        <v>-14.768550741054</v>
+        <v>-14.571499319283</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.808966898510535</v>
+        <v>-1.80414144873289</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.469865200345748</v>
+        <v>-2.739775137888738</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.449063956022119</v>
       </c>
       <c r="E64" t="n">
-        <v>-14.8873438299063</v>
+        <v>-14.70070110375496</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.841962805855344</v>
+        <v>-1.860917485478373</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.653735859603552</v>
+        <v>-2.922741330876163</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.198821015574303</v>
       </c>
       <c r="E65" t="n">
-        <v>-14.91524050308892</v>
+        <v>-14.64733270479571</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.045614386896686</v>
+        <v>-2.074967984125643</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.731094615258747</v>
+        <v>-3.000153865606894</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.940394274767365</v>
       </c>
       <c r="E66" t="n">
-        <v>-14.89699472946159</v>
+        <v>-14.76059143787466</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.015590995726961</v>
+        <v>-2.046108176590244</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.011806722536403</v>
+        <v>-3.365876024286467</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.677684551159686</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.0434644861875</v>
+        <v>-14.87114655015621</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.190710332692988</v>
+        <v>-2.230961526228298</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.161718340096616</v>
+        <v>-3.495219589957569</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.405975626199377</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.1545280551832</v>
+        <v>-14.95922200886369</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.253729631207521</v>
+        <v>-2.293858599571159</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.137165747610969</v>
+        <v>-3.529990206795068</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.130990845567257</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.30401921815286</v>
+        <v>-15.18188204860359</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.255543452755147</v>
+        <v>-2.24720280704019</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.184672227336781</v>
+        <v>-3.577594466658219</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.852794288130115</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.23984122501087</v>
+        <v>-15.18349542086968</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.388289767205622</v>
+        <v>-2.391423620607314</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.07593093660286</v>
+        <v>-3.494999584648558</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.575763369517391</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.44280345608398</v>
+        <v>-15.42595593842059</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.39634196151543</v>
+        <v>-2.407342226965989</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.233332512683186</v>
+        <v>-3.742525113313595</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.303951785452812</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.69405929698847</v>
+        <v>-15.69969143289916</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.564450462634301</v>
+        <v>-2.602452713010831</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.359728007213538</v>
+        <v>-3.853168227718747</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.039557623170166</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.71501846942693</v>
+        <v>-15.73253578103109</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.661555917024966</v>
+        <v>-2.668737868112464</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.220762876028347</v>
+        <v>-3.721971728445084</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.788895259742893</v>
       </c>
       <c r="E74" t="n">
-        <v>-16.08464694459317</v>
+        <v>-16.19642919759832</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.823362488292383</v>
+        <v>-2.828725728825388</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.18543491240802</v>
+        <v>-3.739190810630359</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.551377742677743</v>
       </c>
       <c r="E75" t="n">
-        <v>-16.15188545603385</v>
+        <v>-16.19464471009189</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.013671969593914</v>
+        <v>-3.016272921247113</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.032922343194609</v>
+        <v>-3.662580073025801</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.334421983706535</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.52139659503528</v>
+        <v>-16.47314209725883</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.104905726737414</v>
+        <v>-3.046706988993658</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.043819939500962</v>
+        <v>-3.723399318450223</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.138366681625648</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.93207806086301</v>
+        <v>-16.9699238630198</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.166248095896596</v>
+        <v>-3.155345610583375</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.820045206195398</v>
+        <v>-3.492119959603945</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-2.967165000398953</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.45778319124864</v>
+        <v>-17.53109873822489</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.359725653647888</v>
+        <v>-3.414800316003685</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.62993617417541</v>
+        <v>-3.34441328414071</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-2.823870519285702</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.94022549986894</v>
+        <v>-18.00431060188046</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.36764584477229</v>
+        <v>-3.392310884415876</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.53271338361994</v>
+        <v>-3.277380110988439</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-2.709918636369759</v>
       </c>
       <c r="E80" t="n">
-        <v>-18.51200463096837</v>
+        <v>-18.63886458115109</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.512076885634691</v>
+        <v>-3.58130033386334</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.322544756425</v>
+        <v>-3.067988835885339</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.630072167430155</v>
       </c>
       <c r="E81" t="n">
-        <v>-19.11025773425216</v>
+        <v>-19.2693117946535</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.605618254019375</v>
+        <v>-3.690271407920008</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.051278210414224</v>
+        <v>-2.783389968148486</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.585366089269797</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.86617153098021</v>
+        <v>-20.08040781188842</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.623697801413227</v>
+        <v>-3.667615750098724</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.028392769270195</v>
+        <v>-2.866014184199349</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.580932509846781</v>
       </c>
       <c r="E83" t="n">
-        <v>-20.51989530617601</v>
+        <v>-20.7783477651886</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.602342619418542</v>
+        <v>-3.691141651142318</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.748379789974508</v>
+        <v>-2.576379639389573</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.620122432952113</v>
       </c>
       <c r="E84" t="n">
-        <v>-21.48023803603725</v>
+        <v>-21.85948807671757</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.587450704501919</v>
+        <v>-3.672607426109844</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.601078902081228</v>
+        <v>-2.378604644602263</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.705431001978426</v>
       </c>
       <c r="E85" t="n">
-        <v>-22.24526494156523</v>
+        <v>-22.66868715928813</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.51171509912654</v>
+        <v>-3.550362698409502</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.259650218523356</v>
+        <v>-2.075090209297316</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-2.844383852960336</v>
       </c>
       <c r="E86" t="n">
-        <v>-23.62484489927129</v>
+        <v>-24.09679051014832</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.481862823197157</v>
+        <v>-3.561499856052335</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.053231459595339</v>
+        <v>-1.836139998676848</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.037490872010637</v>
       </c>
       <c r="E87" t="n">
-        <v>-24.64255034670204</v>
+        <v>-25.15951393280963</v>
       </c>
       <c r="F87" t="n">
-        <v>-3.363602636093352</v>
+        <v>-3.420931130614796</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.90837018612865</v>
+        <v>-1.713733933749898</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.29440936370245</v>
       </c>
       <c r="E88" t="n">
-        <v>-26.0654273492215</v>
+        <v>-26.56596876126312</v>
       </c>
       <c r="F88" t="n">
-        <v>-3.325756833936563</v>
+        <v>-3.36994367799974</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.7413372665205</v>
+        <v>-1.473043236684809</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.618287195720746</v>
       </c>
       <c r="E89" t="n">
-        <v>-27.41670973518185</v>
+        <v>-27.953967588794</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.297972607911885</v>
+        <v>-3.421121801882606</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.588081568263317</v>
+        <v>-1.263754630725914</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.01470468954529</v>
       </c>
       <c r="E90" t="n">
-        <v>-29.03512256734358</v>
+        <v>-29.70931905879458</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.379829249884642</v>
+        <v>-3.514526278075016</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.722754151419357</v>
+        <v>-1.510238800928297</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.489276448356853</v>
       </c>
       <c r="E91" t="n">
-        <v>-30.54568146351772</v>
+        <v>-31.29238926031537</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.47962365805211</v>
+        <v>-3.619742594857892</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.647531891765003</v>
+        <v>-1.319137300514326</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-5.039349640045128</v>
       </c>
       <c r="E92" t="n">
-        <v>-32.22621157242703</v>
+        <v>-32.93594381029021</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.329736485526232</v>
+        <v>-3.428538425299716</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.073603951209774</v>
+        <v>-1.814687036544825</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-5.67249305910472</v>
       </c>
       <c r="E93" t="n">
-        <v>-34.26278360641943</v>
+        <v>-35.00682200546774</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.309178211650854</v>
+        <v>-3.47233414881354</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.012770038764751</v>
+        <v>-1.650406627802749</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.375126881534658</v>
       </c>
       <c r="E94" t="n">
-        <v>-36.31797786756789</v>
+        <v>-37.06805663460028</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.524226067698975</v>
+        <v>-3.713885311087207</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.142010935291648</v>
+        <v>-1.757206982810506</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-7.147878442930604</v>
       </c>
       <c r="E95" t="n">
-        <v>-38.44417273094113</v>
+        <v>-39.24647098031905</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.575550861787848</v>
+        <v>-3.75143777283198</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.51160029840295</v>
+        <v>-2.06544908775576</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-7.98196637433407</v>
       </c>
       <c r="E96" t="n">
-        <v>-40.40420491792854</v>
+        <v>-41.15273631428755</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.659377773527972</v>
+        <v>-3.867048118213918</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.876095316358927</v>
+        <v>-2.322625515976087</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-8.85621623034802</v>
       </c>
       <c r="E97" t="n">
-        <v>-42.55654130101918</v>
+        <v>-43.295969366592</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.581471449103682</v>
+        <v>-3.770412008482477</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.229643847939882</v>
+        <v>-2.583810929827284</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-9.778716514360845</v>
       </c>
       <c r="E98" t="n">
-        <v>-44.86496411734294</v>
+        <v>-45.56343208338475</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.669390459591414</v>
+        <v>-3.925178409861537</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.618852795608114</v>
+        <v>-2.941148441730097</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-10.70123337097619</v>
       </c>
       <c r="E99" t="n">
-        <v>-47.02272118679727</v>
+        <v>-47.68639653547067</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.528679952954735</v>
+        <v>-3.755568983634523</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.973970698393348</v>
+        <v>-3.250221677842727</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-11.6706285863031</v>
       </c>
       <c r="E100" t="n">
-        <v>-49.50791460215636</v>
+        <v>-50.14920441063788</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.620739952258743</v>
+        <v>-3.867835248319492</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.678589035073731</v>
+        <v>-3.861019972747012</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-12.58940681308027</v>
       </c>
       <c r="E101" t="n">
-        <v>-51.77396072920942</v>
+        <v>-52.36852874356727</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.67009447658025</v>
+        <v>-4.00249316445493</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.042106251656326</v>
+        <v>-4.286256012017541</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-13.60077714661102</v>
       </c>
       <c r="E102" t="n">
-        <v>-53.99724515770101</v>
+        <v>-54.50888461533053</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.675320824920981</v>
+        <v>-4.038544701091561</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.764183231858461</v>
+        <v>-4.99441398966957</v>
       </c>
     </row>
   </sheetData>
